--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/10/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/10/seed4/result_data_KNN.xlsx
@@ -494,7 +494,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.468000000000001</v>
+        <v>-7.806</v>
       </c>
     </row>
     <row r="5">
@@ -561,10 +561,10 @@
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.964</v>
+        <v>-11.002</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.965999999999999</v>
+        <v>-7.355999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -687,7 +687,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.946</v>
+        <v>-11.686</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -715,7 +715,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.748</v>
+        <v>-12.365</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -760,7 +760,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.510000000000002</v>
+        <v>-8.046999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -774,7 +774,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.354000000000001</v>
+        <v>-6.946000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -802,7 +802,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-6.95</v>
+        <v>-7.725</v>
       </c>
     </row>
     <row r="27">
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-11.728</v>
+        <v>-12.375</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -914,7 +914,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.348000000000001</v>
+        <v>-7.485999999999999</v>
       </c>
     </row>
     <row r="35">
@@ -928,7 +928,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.804</v>
+        <v>-8.126000000000001</v>
       </c>
     </row>
     <row r="36">
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-8.273999999999999</v>
+        <v>-7.781000000000001</v>
       </c>
     </row>
     <row r="49">
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-8.176</v>
+        <v>-8.046000000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1362,7 +1362,7 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.970000000000001</v>
+        <v>-7.577</v>
       </c>
     </row>
     <row r="67">
@@ -1376,7 +1376,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-8.273999999999999</v>
+        <v>-7.733</v>
       </c>
     </row>
     <row r="68">
@@ -1401,7 +1401,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.158</v>
+        <v>-10.961</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1499,7 +1499,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.75</v>
+        <v>-12.969</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1558,7 +1558,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-7.666000000000001</v>
+        <v>-8.148</v>
       </c>
     </row>
     <row r="81">
@@ -1583,7 +1583,7 @@
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-12.244</v>
+        <v>-11.789</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1824,7 +1824,7 @@
         <v>-13.93</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.278</v>
+        <v>-8.206000000000001</v>
       </c>
     </row>
     <row r="100">
